--- a/KhachHang/CongTyNgoai/ThuLoc-CongTrinh.xlsx
+++ b/KhachHang/CongTyNgoai/ThuLoc-CongTrinh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\ThuLoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThucTran\HSTT\KhachHang\CongTyNgoai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5402B8C-6AF5-45B2-9BE0-4A1819AC0F61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24040B9-5B70-4548-9975-73B257108F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>CÔNG TY TNHH</t>
   </si>
@@ -352,6 +354,12 @@
   </si>
   <si>
     <t>GiaTriCoVATBangChu</t>
+  </si>
+  <si>
+    <t>Đường dây trung thế 22kV &amp; TBA 3P-1000kVA Công ty TNHH MTV Hòn Đất</t>
+  </si>
+  <si>
+    <t>Công ty TNHH MTV Hòn Đất</t>
   </si>
 </sst>
 </file>
@@ -594,12 +602,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="VnTools-Excel"/>
     </sheetNames>
     <definedNames>
       <definedName name="VND"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -944,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1059,7 +1069,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="15" t="str">
-        <f t="shared" ref="I2:I7" si="0">UPPER(H2)</f>
+        <f t="shared" ref="I2:I8" si="0">UPPER(H2)</f>
         <v>CÔNG TY TNHH MTV QUANG VINH VIỆT</v>
       </c>
       <c r="J2" s="19" t="s">
@@ -1071,9 +1081,9 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="str">
-        <f>[1]!VND(N2)</f>
-        <v/>
+      <c r="R2" t="e">
+        <f ca="1">[1]!VND(N2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="28.8">
@@ -1105,9 +1115,9 @@
       <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="str">
-        <f>[1]!VND(N3)</f>
-        <v/>
+      <c r="R3" t="e">
+        <f ca="1">[1]!VND(N3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="43.2">
@@ -1142,9 +1152,9 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="str">
-        <f>[1]!VND(N4)</f>
-        <v/>
+      <c r="R4" t="e">
+        <f ca="1">[1]!VND(N4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="43.2">
@@ -1201,29 +1211,29 @@
         <f>N5-P5</f>
         <v>293700000</v>
       </c>
-      <c r="R5" t="str">
-        <f>[1]!VND(N5)</f>
-        <v>Bốn trăm tám mươi chín triệu, năm trăm nghìn đồng chẵn.</v>
-      </c>
-      <c r="S5" s="17" t="str">
-        <f>[1]!VND(P5)</f>
-        <v>Một trăm chín mươi lăm triệu, tám trăm nghìn đồng chẵn.</v>
-      </c>
-      <c r="T5" t="str">
-        <f>[1]!VND(Q5)</f>
-        <v>Hai trăm chín mươi ba triệu, bảy trăm nghìn đồng chẵn.</v>
+      <c r="R5" t="e">
+        <f ca="1">[1]!VND(N5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S5" s="17" t="e">
+        <f ca="1">[1]!VND(P5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T5" t="e">
+        <f ca="1">[1]!VND(Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U5" s="18" t="str">
         <f>TEXT(N5,"##0,0")</f>
-        <v>489,500,000</v>
+        <v>489500000,0</v>
       </c>
       <c r="V5" s="18" t="str">
         <f>TEXT(P5,"##0,0")</f>
-        <v>195,800,000</v>
+        <v>195800000,0</v>
       </c>
       <c r="W5" s="18" t="str">
         <f>TEXT(Q5,"##0,0")</f>
-        <v>293,700,000</v>
+        <v>293700000,0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="28.8">
@@ -1264,9 +1274,9 @@
       <c r="N6" s="18">
         <v>115000000</v>
       </c>
-      <c r="R6" t="str">
-        <f>[1]!VND(N6)</f>
-        <v>Một trăm mười lăm triệu đồng chẵn.</v>
+      <c r="R6" t="e">
+        <f ca="1">[1]!VND(N6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="U6" s="18">
         <v>115000000</v>
@@ -1306,6 +1316,31 @@
       </c>
       <c r="L7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="28.8">
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CÔNG TY TNHH MTV HÒN ĐẤT</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1365,7 @@
   <dimension ref="E1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
